--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F92800-F733-4C2A-B09B-E3527BC28313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C7B29-55D1-4FCF-8022-2FFE6D610BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="67" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>47</v>

--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C7B29-55D1-4FCF-8022-2FFE6D610BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DBD9D-41FD-467E-9B50-0C9EB6DA82B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7005" windowWidth="28800" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DBD9D-41FD-467E-9B50-0C9EB6DA82B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134AFDD-B97C-4AE9-9571-EDD9A66C8331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7005" windowWidth="28800" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="1140" windowWidth="22995" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="114">
   <si>
     <t>Section</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>Use 1990 as default value.</t>
+  </si>
+  <si>
+    <t>Use as full layer definition for the inventory vintage layer.</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,10 +1797,13 @@
         <v>46</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,19 +1811,16 @@
         <v>101</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,9 +1834,29 @@
         <v>47</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>112</v>
       </c>
     </row>

--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134AFDD-B97C-4AE9-9571-EDD9A66C8331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03826951-443E-4420-ABE6-66A6ECFA72C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1140" windowWidth="22995" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15165" yWindow="2160" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="126">
   <si>
     <t>Section</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Ensure file exists.</t>
   </si>
   <si>
-    <t>Ensure attribute exists in layer's attribute table: csv file with same name as raster layer in config file directory or layer directory, or attribute table natively. paired with vector layer</t>
-  </si>
-  <si>
     <t>resolution</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>Use as column # for reading from classifier values files.</t>
   </si>
   <si>
-    <t>If values_path only has a single column, use that; otherwise search for column in values_path matching classifier name; if not found, search for a column in values_path where the column values are a superset of this classifier's values from its spatial layer.</t>
-  </si>
-  <si>
     <t>yield_col</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
     <t>Use as column # linked to classifier in the yield table.</t>
   </si>
   <si>
-    <t>Search yield table for column matching classifier name, or use values_col if values_path is the same as yield table path.</t>
-  </si>
-  <si>
     <t>bounding_box</t>
   </si>
   <si>
@@ -237,15 +228,6 @@
     <t>Use as layer definition for bounding box.</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Use as attribute value to limit bounding box to.</t>
-  </si>
-  <si>
-    <t>Use any non-null attribute values or non-nodata pixel values (i.e. no filter specified in tiler).</t>
-  </si>
-  <si>
     <t>layers</t>
   </si>
   <si>
@@ -291,12 +273,6 @@
     <t>Ensure disturbance type exists in AIDB.</t>
   </si>
   <si>
-    <t>Search for an attribute named "disturbance_type"; if not found, search for the first attribute where all the unique values appear in tblDisturbanceTypeDefault in the AIDB.</t>
-  </si>
-  <si>
-    <t>Search for an attribute named "year"; if not found, search for the first attribute where all the unique values parse into years.</t>
-  </si>
-  <si>
     <t>age_after</t>
   </si>
   <si>
@@ -345,9 +321,6 @@
     <t>inventory_year</t>
   </si>
   <si>
-    <t>Use as path to age distribution JSON file for rollback tool.</t>
-  </si>
-  <si>
     <t>Use as global inventory vintage year for the rollback tool.</t>
   </si>
   <si>
@@ -367,6 +340,69 @@
   </si>
   <si>
     <t>Use as full layer definition for the inventory vintage layer.</t>
+  </si>
+  <si>
+    <t>Accept a single-item dictionary where the key is the attribute to read from, and the value is the attribute value to filter for; only polygons matching the filter value are rasterized.</t>
+  </si>
+  <si>
+    <t>Ensure attribute exists in layer's attribute table: csv file with same name as raster layer in config file directory or layer directory, or attribute table natively paired with vector layer.</t>
+  </si>
+  <si>
+    <t>If values_path only has a single column, use that; otherwise search for column in values_path matching classifier name or spatial attribute; if not found, search for a column in values_path where the column values intersect with this classifier's values from its spatial layer.</t>
+  </si>
+  <si>
+    <t>Use values_col if values_path is the same as yield table path, or search yield table for column matching classifier name, or search for column where values are a subset of values from values_path.</t>
+  </si>
+  <si>
+    <t>Search for an attribute named "year"; if not found, search for the first attribute where all the unique values parse into years; or finally, try to parse the year from the filename.</t>
+  </si>
+  <si>
+    <t>Search for the first attribute where all the unique values appear in tblDisturbanceTypeDefault in the AIDB.</t>
+  </si>
+  <si>
+    <t>prioritize_disturbances</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>single_draw</t>
+  </si>
+  <si>
+    <t>Set single-draw mode in the rollback tool (default: False) - draws a single age per work unit requiring a draw from the age distribution, instead of a draw per pixel.</t>
+  </si>
+  <si>
+    <t>Use False as default value (prioritize inventory).</t>
+  </si>
+  <si>
+    <t>Set prioritize disturbances mode in the rollback tool (default: False).</t>
+  </si>
+  <si>
+    <t>Use False as default value (per-pixel age draw).</t>
+  </si>
+  <si>
+    <t>establishment_disturbance_type</t>
+  </si>
+  <si>
+    <t>Use as default establishment disturbance type for pixels which require one to be created due to a lack of historic disturbance information (default: Wildfire).</t>
+  </si>
+  <si>
+    <t>Use Wildfire as default value.</t>
+  </si>
+  <si>
+    <t>disturbance_order</t>
+  </si>
+  <si>
+    <t>Use as path to disturbance order file, a text file with a list of disturbance type names in descending priority order; this list is used to order the sequence of disturbances if there are multiple disturbances in the same year on the same pixel.</t>
+  </si>
+  <si>
+    <t>Ensure disturbance types exist in the AIDB.</t>
+  </si>
+  <si>
+    <t>A default disturbance order is generated based on disturbance code (default disturbance type ID), where lowest code/ID = highest priority.</t>
+  </si>
+  <si>
+    <t>Use as path to age distribution JSON or Excel file for rollback tool.</t>
   </si>
 </sst>
 </file>
@@ -713,18 +749,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.85546875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -738,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -758,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -775,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -792,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -812,13 +848,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -849,7 +885,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -858,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -866,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -875,10 +911,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -886,36 +922,36 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,33 +959,33 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -957,16 +993,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,19 +1013,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,16 +1030,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,19 +1050,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,16 +1067,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>19</v>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,16 +1087,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,16 +1104,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,19 +1121,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,298 +1138,301 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>56</v>
+      <c r="F25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1401,463 +1440,588 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
+      <c r="F42" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>88</v>
+      <c r="F45" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03826951-443E-4420-ABE6-66A6ECFA72C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D471F5-409B-4BE1-814C-D3E0CADBB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15165" yWindow="2160" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="127">
   <si>
     <t>Section</t>
   </si>
@@ -252,9 +252,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Use as name of attribute containing year of disturbance.</t>
-  </si>
-  <si>
     <t>Ensure attribute exists in layer.</t>
   </si>
   <si>
@@ -403,6 +400,12 @@
   </si>
   <si>
     <t>Use as path to age distribution JSON or Excel file for rollback tool.</t>
+  </si>
+  <si>
+    <t>Use as name of attribute containing year of disturbance, or if special "filename" keyword is used, try to parse year from filename.</t>
+  </si>
+  <si>
+    <t>Ensure attribute exists in layer or year is parseable from filename.</t>
   </si>
 </sst>
 </file>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -928,10 +931,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1298,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,7 +1472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -1483,10 +1486,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,10 +1506,10 @@
         <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1523,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>46</v>
@@ -1540,10 +1543,10 @@
         <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1551,7 +1554,7 @@
         <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>46</v>
@@ -1560,10 +1563,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1571,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>46</v>
@@ -1580,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,7 +1591,7 @@
         <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>46</v>
@@ -1597,10 +1600,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,7 +1611,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>46</v>
@@ -1617,10 +1620,10 @@
         <v>36</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1628,7 +1631,7 @@
         <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
@@ -1637,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,7 +1648,7 @@
         <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>46</v>
@@ -1654,10 +1657,10 @@
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,7 +1668,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>46</v>
@@ -1674,10 +1677,10 @@
         <v>36</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>73</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>46</v>
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>46</v>
@@ -1711,7 +1714,7 @@
         <v>40</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1719,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>46</v>
@@ -1728,15 +1731,15 @@
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>45</v>
@@ -1745,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>24</v>
@@ -1753,10 +1756,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>45</v>
@@ -1765,15 +1768,15 @@
         <v>10</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>45</v>
@@ -1782,18 +1785,18 @@
         <v>36</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>45</v>
@@ -1802,7 +1805,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>24</v>
@@ -1810,10 +1813,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>45</v>
@@ -1822,7 +1825,7 @@
         <v>49</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>51</v>
@@ -1830,10 +1833,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>45</v>
@@ -1842,15 +1845,15 @@
         <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>46</v>
@@ -1859,18 +1862,18 @@
         <v>36</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
@@ -1879,32 +1882,32 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>46</v>
@@ -1913,32 +1916,32 @@
         <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
@@ -1947,15 +1950,15 @@
         <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>46</v>
@@ -1964,18 +1967,18 @@
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>46</v>
@@ -1984,15 +1987,15 @@
         <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>46</v>
@@ -2001,18 +2004,18 @@
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>46</v>
@@ -2021,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/config_parsing_and_defaults.xlsx
+++ b/docs/config_parsing_and_defaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\projects\gcbmwalltowall\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D471F5-409B-4BE1-814C-D3E0CADBB1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3358A75-E9D5-4114-812C-0B22C5DEFAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17450" yWindow="0" windowWidth="20950" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="137">
   <si>
     <t>Section</t>
   </si>
@@ -189,9 +189,6 @@
     <t>values_path</t>
   </si>
   <si>
-    <t>Use as path to file containing values for the classifier.</t>
-  </si>
-  <si>
     <t>Use yield table.</t>
   </si>
   <si>
@@ -406,6 +403,39 @@
   </si>
   <si>
     <t>Ensure attribute exists in layer or year is parseable from filename.</t>
+  </si>
+  <si>
+    <t>Contains optional builder configuration.</t>
+  </si>
+  <si>
+    <t>Builder section must include at least "type" item.</t>
+  </si>
+  <si>
+    <t>strict_lookup_table</t>
+  </si>
+  <si>
+    <t>Set strict mode for lookup tables associated with vector layers (default: False). Strict mode means that only values that appear in the lookup table are included in the final rasterized layer, otherwise the polygons are skipped and become nodata. Non-strict mode uses the original attribute value when no substitution is provided in the lookup table.</t>
+  </si>
+  <si>
+    <t>Use as path to file containing all possible values for the classifier.</t>
+  </si>
+  <si>
+    <t>(any mojadata library Layer args)</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>Any additional keyword arguments to pass directly to the underlying mojadata library Layer constructor.</t>
+  </si>
+  <si>
+    <t>gcbm_config_templates</t>
+  </si>
+  <si>
+    <t>Path to directory containing GCBM config file templates.</t>
+  </si>
+  <si>
+    <t>Use default GCBM config file templates bundled with gcbmwalltowall.</t>
   </si>
 </sst>
 </file>
@@ -752,24 +782,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42.26953125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,27 +853,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,33 +884,33 @@
         <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -891,33 +921,33 @@
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,16 +958,16 @@
         <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,33 +978,33 @@
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,1050 +1015,1147 @@
         <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="2" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="E72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2" t="s">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;K000000 UNCLASSIFIED - NON CLASSIFIÉ&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{219619fd-75dc-48cb-820d-8f683a95dd8b}" enabled="1" method="Privileged" siteId="{05c95b33-90ca-49d5-b644-288b930b912b}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>